--- a/doc/import/TONG HOP XUAT KHO HC-VT 2017.xlsx
+++ b/doc/import/TONG HOP XUAT KHO HC-VT 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7170"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M255"/>
+  <dimension ref="A2:P255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -895,7 +895,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="26.25">
+    <row r="2" spans="1:16" ht="26.25">
       <c r="A2" s="48" t="s">
         <v>103</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,7 +951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:16" ht="33">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="L4" s="45"/>
       <c r="M4" s="47"/>
     </row>
-    <row r="5" spans="1:13" ht="17.25">
+    <row r="5" spans="1:16" ht="17.25">
       <c r="A5" s="41">
         <v>1</v>
       </c>
@@ -1014,8 +1014,9 @@
         <v>42798</v>
       </c>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.25">
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.25">
       <c r="A6" s="41">
         <v>1</v>
       </c>
@@ -1052,7 +1053,7 @@
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="17.25">
+    <row r="7" spans="1:16" ht="17.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
@@ -1089,7 +1090,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25">
+    <row r="8" spans="1:16" ht="17.25">
       <c r="A8" s="41">
         <v>2</v>
       </c>
@@ -1126,7 +1127,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="17.25">
+    <row r="9" spans="1:16" ht="17.25">
       <c r="A9" s="41">
         <v>2</v>
       </c>
@@ -1163,7 +1164,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25">
+    <row r="10" spans="1:16" ht="17.25">
       <c r="A10" s="41">
         <v>3</v>
       </c>
@@ -1200,7 +1201,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25">
+    <row r="11" spans="1:16" ht="17.25">
       <c r="A11" s="41">
         <v>3</v>
       </c>
@@ -1237,7 +1238,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25">
+    <row r="12" spans="1:16" ht="17.25">
       <c r="A12" s="41">
         <v>4</v>
       </c>
@@ -1274,7 +1275,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="17.25">
+    <row r="13" spans="1:16" ht="17.25">
       <c r="A13" s="41">
         <v>4</v>
       </c>
@@ -1311,7 +1312,7 @@
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="17.25">
+    <row r="14" spans="1:16" ht="17.25">
       <c r="A14" s="41">
         <v>5</v>
       </c>
@@ -1348,7 +1349,7 @@
       </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25">
+    <row r="15" spans="1:16" ht="17.25">
       <c r="A15" s="41">
         <v>5</v>
       </c>
@@ -1385,7 +1386,7 @@
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="17.25">
+    <row r="16" spans="1:16" ht="17.25">
       <c r="A16" s="41">
         <v>6</v>
       </c>
@@ -8534,7 +8535,7 @@
       </c>
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="1:13" ht="29.25">
+    <row r="213" spans="1:13" ht="27">
       <c r="A213" s="41">
         <v>63</v>
       </c>
@@ -8674,7 +8675,7 @@
       </c>
       <c r="M216" s="5"/>
     </row>
-    <row r="217" spans="1:13" ht="29.25">
+    <row r="217" spans="1:13" ht="27">
       <c r="A217" s="41">
         <v>64</v>
       </c>
@@ -8814,7 +8815,7 @@
       </c>
       <c r="M220" s="5"/>
     </row>
-    <row r="221" spans="1:13" ht="29.25">
+    <row r="221" spans="1:13" ht="27">
       <c r="A221" s="41">
         <v>67</v>
       </c>
@@ -8849,7 +8850,7 @@
       </c>
       <c r="M221" s="5"/>
     </row>
-    <row r="222" spans="1:13" ht="29.25">
+    <row r="222" spans="1:13" ht="27">
       <c r="A222" s="41">
         <v>67</v>
       </c>
@@ -8919,7 +8920,7 @@
       </c>
       <c r="M223" s="5"/>
     </row>
-    <row r="224" spans="1:13" ht="29.25">
+    <row r="224" spans="1:13" ht="27">
       <c r="A224" s="41">
         <v>68</v>
       </c>
@@ -8989,7 +8990,7 @@
       </c>
       <c r="M225" s="5"/>
     </row>
-    <row r="226" spans="1:13" ht="29.25">
+    <row r="226" spans="1:13" ht="27">
       <c r="A226" s="41">
         <v>69</v>
       </c>
@@ -9059,7 +9060,7 @@
       </c>
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="1:13" ht="29.25">
+    <row r="228" spans="1:13" ht="27">
       <c r="A228" s="41">
         <v>70</v>
       </c>
@@ -9129,7 +9130,7 @@
       </c>
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="1:13" ht="29.25">
+    <row r="230" spans="1:13" ht="27">
       <c r="A230" s="41">
         <v>71</v>
       </c>
@@ -9199,7 +9200,7 @@
       </c>
       <c r="M231" s="5"/>
     </row>
-    <row r="232" spans="1:13" ht="29.25">
+    <row r="232" spans="1:13" ht="27">
       <c r="A232" s="41">
         <v>72</v>
       </c>
@@ -9269,7 +9270,7 @@
       </c>
       <c r="M233" s="5"/>
     </row>
-    <row r="234" spans="1:13" ht="29.25">
+    <row r="234" spans="1:13" ht="27">
       <c r="A234" s="41">
         <v>73</v>
       </c>
@@ -9339,7 +9340,7 @@
       </c>
       <c r="M235" s="5"/>
     </row>
-    <row r="236" spans="1:13" ht="29.25">
+    <row r="236" spans="1:13" ht="27">
       <c r="A236" s="41">
         <v>74</v>
       </c>
